--- a/excel/products.xlsx
+++ b/excel/products.xlsx
@@ -401,7 +401,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="A1:XFD1048576"/>
+      <selection activeCell="J14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
